--- a/Klinisk/Samples_to_uppsala_extracted_okt.xlsx
+++ b/Klinisk/Samples_to_uppsala_extracted_okt.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jqc305/Documents/PhD/Klinisk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F02E8-9283-9746-97FF-9D7124ABB051}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED48C2A3-CE67-324A-AEE6-388895F490E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{F960420D-8791-9D44-A32F-49D1F7E6781B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{1CFCA1DD-57C4-1D47-B8CB-0E8ED7A6B3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Box" sheetId="1" r:id="rId1"/>
@@ -24,11 +25,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">arbetsblad!$A$2:$P$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Box!$A$1:$N$11</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -122,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="220">
   <si>
     <t>ID</t>
   </si>
@@ -954,6 +963,9 @@
   </si>
   <si>
     <t>low-cov seq input</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -2966,7 +2978,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4576F339-3343-3440-B83F-9D96FDDB1FAD}" name="Table1" displayName="Table1" ref="A1:R20" totalsRowShown="0" tableBorderDxfId="22">
   <autoFilter ref="A1:R20" xr:uid="{AB140B1C-EDFA-DD4C-A91D-F4BD256B1BF9}"/>
-  <sortState ref="A2:R20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R20">
     <sortCondition descending="1" ref="R1:R20"/>
   </sortState>
   <tableColumns count="18">
@@ -3338,6 +3350,9 @@
     <sheetView zoomScale="65" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3753,8 +3768,11 @@
   </sheetPr>
   <dimension ref="A3:R30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4914,10 +4932,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AC7E8B5-FAE9-E341-8D92-562442B76729}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5952,6 +5973,11 @@
         <v>218</v>
       </c>
     </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J29" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5967,6 +5993,9 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+    <sheetView workbookViewId="1">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6199,6 +6228,7 @@
     <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6982,7 +7012,7 @@
       <c r="L28" s="137"/>
     </row>
   </sheetData>
-  <sortState ref="B2:M19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:M19">
     <sortCondition descending="1" ref="G2:G19"/>
     <sortCondition descending="1" ref="H2:H19"/>
     <sortCondition descending="1" ref="F2:F19"/>
